--- a/pratice_project/Gippeum/gunsan.xlsx
+++ b/pratice_project/Gippeum/gunsan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>dong</t>
   </si>
@@ -25,157 +25,265 @@
     <t>num_of_shop</t>
   </si>
   <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 통영시</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 산양읍</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 용남면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도산면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 광도면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 욕지면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 한산면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사량면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도천동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 명정동</t>
+    <t>전라북도</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 군산시</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 옥구읍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 옥산면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 회현면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 임피면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 서수면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 대야면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 개정면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성산면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나포면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 옥도면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 옥서면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 해신동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 월명동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 신풍동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 삼학동</t>
   </si>
   <si>
     <t xml:space="preserve"> 중앙동</t>
   </si>
   <si>
-    <t xml:space="preserve"> 정량동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 북신동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 미수동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 봉평동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 무전동</t>
-  </si>
-  <si>
-    <t>3,368,020</t>
-  </si>
-  <si>
-    <t>138,693</t>
-  </si>
-  <si>
-    <t>5,039</t>
-  </si>
-  <si>
-    <t>13,086</t>
-  </si>
-  <si>
-    <t>3,203</t>
-  </si>
-  <si>
-    <t>29,003</t>
-  </si>
-  <si>
-    <t>1,967</t>
-  </si>
-  <si>
-    <t>2,183</t>
-  </si>
-  <si>
-    <t>1,574</t>
-  </si>
-  <si>
-    <t>11,096</t>
-  </si>
-  <si>
-    <t>3,793</t>
-  </si>
-  <si>
-    <t>5,369</t>
-  </si>
-  <si>
-    <t>10,947</t>
-  </si>
-  <si>
-    <t>9,730</t>
-  </si>
-  <si>
-    <t>13,232</t>
-  </si>
-  <si>
-    <t>13,016</t>
-  </si>
-  <si>
-    <t>15,456</t>
-  </si>
-  <si>
-    <t>174,259</t>
-  </si>
-  <si>
-    <t>7,983</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>1,293</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>95</t>
+    <t xml:space="preserve"> 흥남동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조촌동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경암동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구암동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 개정동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수송동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나운1동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나운2동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 나운3동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소룡동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미성동</t>
+  </si>
+  <si>
+    <t>1,870,445</t>
+  </si>
+  <si>
+    <t>282,292</t>
+  </si>
+  <si>
+    <t>3,601</t>
+  </si>
+  <si>
+    <t>3,680</t>
+  </si>
+  <si>
+    <t>3,795</t>
+  </si>
+  <si>
+    <t>3,089</t>
+  </si>
+  <si>
+    <t>2,849</t>
+  </si>
+  <si>
+    <t>5,542</t>
+  </si>
+  <si>
+    <t>3,514</t>
+  </si>
+  <si>
+    <t>3,286</t>
+  </si>
+  <si>
+    <t>2,482</t>
+  </si>
+  <si>
+    <t>3,766</t>
+  </si>
+  <si>
+    <t>3,898</t>
+  </si>
+  <si>
+    <t>2,782</t>
+  </si>
+  <si>
+    <t>7,031</t>
+  </si>
+  <si>
+    <t>8,277</t>
+  </si>
+  <si>
+    <t>6,740</t>
+  </si>
+  <si>
+    <t>3,636</t>
+  </si>
+  <si>
+    <t>10,707</t>
+  </si>
+  <si>
+    <t>15,461</t>
+  </si>
+  <si>
+    <t>8,770</t>
+  </si>
+  <si>
+    <t>6,378</t>
+  </si>
+  <si>
+    <t>3,293</t>
+  </si>
+  <si>
+    <t>53,364</t>
+  </si>
+  <si>
+    <t>16,557</t>
+  </si>
+  <si>
+    <t>27,661</t>
+  </si>
+  <si>
+    <t>37,914</t>
+  </si>
+  <si>
+    <t>19,260</t>
+  </si>
+  <si>
+    <t>14,961</t>
+  </si>
+  <si>
+    <t>121,687</t>
+  </si>
+  <si>
+    <t>19,159</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>1,411</t>
+  </si>
+  <si>
+    <t>904</t>
   </si>
   <si>
     <t>424</t>
   </si>
   <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>1,173</t>
-  </si>
-  <si>
-    <t>746</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>1,098</t>
+    <t>1,136</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>1,459</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>3,038</t>
+  </si>
+  <si>
+    <t>1,396</t>
+  </si>
+  <si>
+    <t>1,415</t>
+  </si>
+  <si>
+    <t>1,715</t>
+  </si>
+  <si>
+    <t>1,661</t>
+  </si>
+  <si>
+    <t>933</t>
   </si>
 </sst>
 </file>
@@ -533,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -566,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -577,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -588,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -599,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -610,10 +718,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -621,10 +729,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -632,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -643,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -654,10 +762,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -665,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -676,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -687,10 +795,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -698,10 +806,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -709,10 +817,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -720,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -731,10 +839,142 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/pratice_project/Gippeum/gunsan.xlsx
+++ b/pratice_project/Gippeum/gunsan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>dong</t>
   </si>
@@ -25,265 +25,157 @@
     <t>num_of_shop</t>
   </si>
   <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 군산시</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 옥구읍</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 옥산면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회현면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 임피면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 서수면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 대야면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 개정면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성산면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나포면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 옥도면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 옥서면</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 해신동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 월명동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신풍동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 삼학동</t>
+    <t>경상남도</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 통영시</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 산양읍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 용남면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도산면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 광도면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 욕지면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한산면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 사량면</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 도천동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 명정동</t>
   </si>
   <si>
     <t xml:space="preserve"> 중앙동</t>
   </si>
   <si>
-    <t xml:space="preserve"> 흥남동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조촌동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경암동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 구암동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 개정동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 수송동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나운1동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나운2동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 나운3동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소룡동</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 미성동</t>
-  </si>
-  <si>
-    <t>1,870,445</t>
-  </si>
-  <si>
-    <t>282,292</t>
-  </si>
-  <si>
-    <t>3,601</t>
-  </si>
-  <si>
-    <t>3,680</t>
-  </si>
-  <si>
-    <t>3,795</t>
-  </si>
-  <si>
-    <t>3,089</t>
-  </si>
-  <si>
-    <t>2,849</t>
-  </si>
-  <si>
-    <t>5,542</t>
-  </si>
-  <si>
-    <t>3,514</t>
-  </si>
-  <si>
-    <t>3,286</t>
-  </si>
-  <si>
-    <t>2,482</t>
-  </si>
-  <si>
-    <t>3,766</t>
-  </si>
-  <si>
-    <t>3,898</t>
-  </si>
-  <si>
-    <t>2,782</t>
-  </si>
-  <si>
-    <t>7,031</t>
-  </si>
-  <si>
-    <t>8,277</t>
-  </si>
-  <si>
-    <t>6,740</t>
-  </si>
-  <si>
-    <t>3,636</t>
-  </si>
-  <si>
-    <t>10,707</t>
-  </si>
-  <si>
-    <t>15,461</t>
-  </si>
-  <si>
-    <t>8,770</t>
-  </si>
-  <si>
-    <t>6,378</t>
-  </si>
-  <si>
-    <t>3,293</t>
-  </si>
-  <si>
-    <t>53,364</t>
-  </si>
-  <si>
-    <t>16,557</t>
-  </si>
-  <si>
-    <t>27,661</t>
-  </si>
-  <si>
-    <t>37,914</t>
-  </si>
-  <si>
-    <t>19,260</t>
-  </si>
-  <si>
-    <t>14,961</t>
-  </si>
-  <si>
-    <t>121,687</t>
-  </si>
-  <si>
-    <t>19,159</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>1,411</t>
-  </si>
-  <si>
-    <t>904</t>
+    <t xml:space="preserve"> 정량동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 북신동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 미수동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 봉평동</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 무전동</t>
+  </si>
+  <si>
+    <t>3,368,020</t>
+  </si>
+  <si>
+    <t>138,693</t>
+  </si>
+  <si>
+    <t>5,039</t>
+  </si>
+  <si>
+    <t>13,086</t>
+  </si>
+  <si>
+    <t>3,203</t>
+  </si>
+  <si>
+    <t>29,003</t>
+  </si>
+  <si>
+    <t>1,967</t>
+  </si>
+  <si>
+    <t>2,183</t>
+  </si>
+  <si>
+    <t>1,574</t>
+  </si>
+  <si>
+    <t>11,096</t>
+  </si>
+  <si>
+    <t>3,793</t>
+  </si>
+  <si>
+    <t>5,369</t>
+  </si>
+  <si>
+    <t>10,947</t>
+  </si>
+  <si>
+    <t>9,730</t>
+  </si>
+  <si>
+    <t>13,232</t>
+  </si>
+  <si>
+    <t>13,016</t>
+  </si>
+  <si>
+    <t>15,456</t>
+  </si>
+  <si>
+    <t>174,259</t>
+  </si>
+  <si>
+    <t>7,983</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>1,293</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>424</t>
   </si>
   <si>
-    <t>1,136</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>1,459</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>3,038</t>
-  </si>
-  <si>
-    <t>1,396</t>
-  </si>
-  <si>
-    <t>1,415</t>
-  </si>
-  <si>
-    <t>1,715</t>
-  </si>
-  <si>
-    <t>1,661</t>
-  </si>
-  <si>
-    <t>933</t>
+    <t>448</t>
+  </si>
+  <si>
+    <t>1,173</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>1,098</t>
   </si>
 </sst>
 </file>
@@ -641,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -674,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -685,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -707,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -718,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -729,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -740,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -751,10 +643,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -762,10 +654,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -773,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -784,10 +676,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,10 +687,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -806,10 +698,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -817,10 +709,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -828,10 +720,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -839,142 +731,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
